--- a/reconstruction-tools-assessment/supplementary material/S1_file.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S1_file.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D3B00-6E11-4145-A47C-9400F9D4389B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20346" windowHeight="5886"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abbreviations" sheetId="9" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -171,9 +172,6 @@
     <t>iNF517</t>
   </si>
   <si>
-    <t>iNF517-iYO844-iSB619-iHN637-iNJ611</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
@@ -204,30 +202,18 @@
     <t>iML1515-iYL1228-iSFxv_1172-iSbBs512_1146-iSSON_1240-iJN746-iPC815-iIT341-iAF987-stm-iLJ478-iJN678-iJB785-iNF517-iYO844-iSB619-iHN637-iNJ661</t>
   </si>
   <si>
-    <t>iNF517-iYO844-iSB619-iHN637-iNJ611-iML1515-iYL1228-iSFxv_1172-iSbBs512_1146-iSSON_1240-iJN746-iPC815-iIT341-iAF987-stm-iLJ478-iJN678-iJB785</t>
-  </si>
-  <si>
     <t>templates</t>
   </si>
   <si>
-    <t>0.8.1</t>
-  </si>
-  <si>
     <t>...\reconstructions\Inputs\LPL\protein_fasta.faa</t>
   </si>
   <si>
     <t>...\reconstructions\Inputs\BPE\protein_fasta.faa</t>
   </si>
   <si>
-    <t>...\reconstructions\Inputs\LPE\annotation.gb</t>
-  </si>
-  <si>
     <t>...\reconstructions\Inputs\BPE\annotation.gb</t>
   </si>
   <si>
-    <t>bigg_85_fixed_forMeneco_b_l2.padmet</t>
-  </si>
-  <si>
     <t>blast type</t>
   </si>
   <si>
@@ -484,12 +470,174 @@
   </si>
   <si>
     <t>Merlin</t>
+  </si>
+  <si>
+    <t>…reconstructions/LPL/PT6</t>
+  </si>
+  <si>
+    <t>…reconstructions/BPE/PT6</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/PT1</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/PT2</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/PT3</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/PT4</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/PT5</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/PT6</t>
+  </si>
+  <si>
+    <t>...\reconstructions\Inputs\LPL\annotation.gb</t>
+  </si>
+  <si>
+    <t>...\reconstructions\Inputs\PPU\annotation.gb</t>
+  </si>
+  <si>
+    <t>name matching</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/MS1</t>
+  </si>
+  <si>
+    <t>...\reconstructions\Inputs\PPU\protein_fasta.faa</t>
+  </si>
+  <si>
+    <t>...reconstructions/PPU/MS2</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/CA1</t>
+  </si>
+  <si>
+    <t>...reconstructions/PPU/CA2</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/RA1</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/RA2</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/RA3</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/RA4</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/RA5</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/RA6</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/RA7</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/RA8</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/RA9</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/RA10</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/RA11</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/MD1</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/MD2</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/MD3</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/AU1</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/ME1</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/ME2</t>
+  </si>
+  <si>
+    <t>...\reconstructions\Inputs\LPE\protein_fasta.faa</t>
+  </si>
+  <si>
+    <t>Transport Inference Parser</t>
+  </si>
+  <si>
+    <t>Metabolism</t>
+  </si>
+  <si>
+    <t>microaerofilic</t>
+  </si>
+  <si>
+    <t>aerobic</t>
+  </si>
+  <si>
+    <t>default (complete media)</t>
+  </si>
+  <si>
+    <t>iNF517-iYO844-iSB619-iHN637-iNJ661</t>
+  </si>
+  <si>
+    <t>iNF517-iYO844-iSB619-iHN637-iNJ661-iML1515-iYL1228-iSFxv_1172-iSbBs512_1146-iSSON_1240-iJN746-iPC815-iIT341-iAF987-stm-iLJ478-iJN678-iJB785</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>iJN746</t>
+  </si>
+  <si>
+    <t>iJN746-iML1515-iYL1228-iSFxv_1172-iSbBS512_1146-iSSON_1240-iPC815-STM_v1_0-iIT341-iAF987-iLJ478-iJN678-iJB785</t>
+  </si>
+  <si>
+    <t>iJN746-iML1515-iYL1228-iSFxv_1172-iSbBS512_1146-iSSON_1240-iPC815-STM_v1_0-iIT341-iAF987-iLJ478-iJN678-iJB785-iNF517-iYO844-iSB619-iHN637-iNJ661</t>
+  </si>
+  <si>
+    <t>no output</t>
+  </si>
+  <si>
+    <t>…reconstructions/PPU/RA12</t>
+  </si>
+  <si>
+    <t>homology with iNF517</t>
+  </si>
+  <si>
+    <t>homology with iML1515</t>
+  </si>
+  <si>
+    <t>homology with iJN746</t>
+  </si>
+  <si>
+    <t>0.9.2</t>
+  </si>
+  <si>
+    <t>bigg_85_more_fixediNF517_fixed_forMeneco_l2.padmet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -849,11 +997,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -863,66 +1011,66 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -931,11 +1079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -943,11 +1091,12 @@
     <col min="1" max="1" width="22.47265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.89453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.3671875" customWidth="1"/>
-    <col min="5" max="5" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.3671875" customWidth="1"/>
+    <col min="6" max="6" width="9.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -958,94 +1107,161 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>43328</v>
       </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>43328</v>
       </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>43328</v>
       </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>43328</v>
       </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43580</v>
+      </c>
+      <c r="G6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43601</v>
+      </c>
+      <c r="G7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1053,20 +1269,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="62" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="A25" sqref="A20:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="31.5234375" customWidth="1"/>
-    <col min="2" max="2" width="36.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.3671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.89453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5234375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.20703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1092,21 +1313,30 @@
         <v>19</v>
       </c>
       <c r="I1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C2">
         <v>220668</v>
@@ -1127,21 +1357,30 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C3">
         <v>220668</v>
@@ -1162,21 +1401,30 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>220668</v>
@@ -1197,21 +1445,30 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C5">
         <v>220668</v>
@@ -1232,21 +1489,30 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C6">
         <v>220668</v>
@@ -1273,18 +1539,27 @@
         <v>30</v>
       </c>
       <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="C7">
-        <v>257313</v>
+        <v>220668</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1296,27 +1571,36 @@
         <v>15</v>
       </c>
       <c r="G7">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>184</v>
+      </c>
+      <c r="N7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>257313</v>
@@ -1331,27 +1615,36 @@
         <v>15</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>257313</v>
@@ -1366,27 +1659,36 @@
         <v>15</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>257313</v>
@@ -1401,53 +1703,423 @@
         <v>15</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>257313</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>257313</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>30</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>30</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>30</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>30</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>257313</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>185</v>
+      </c>
+      <c r="N13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14">
+        <v>220668</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>0.15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15">
+        <v>220668</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16">
+        <v>220668</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17">
+        <v>220668</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18">
+        <v>220668</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19">
+        <v>220668</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>0.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>185</v>
+      </c>
+      <c r="N19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1457,17 +2129,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="22.47265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.05078125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1490,10 +2163,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1507,10 +2180,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1524,10 +2197,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1541,10 +2214,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1555,6 +2228,46 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43586</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43586</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1562,11 +2275,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1574,7 +2287,7 @@
     <col min="1" max="1" width="32.62890625" customWidth="1"/>
     <col min="2" max="2" width="83" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26171875" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.3671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.3671875" customWidth="1"/>
     <col min="7" max="7" width="10.89453125" bestFit="1" customWidth="1"/>
@@ -1598,10 +2311,10 @@
         <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1612,10 +2325,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -1624,27 +2337,27 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1">
         <v>43328</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
@@ -1653,27 +2366,27 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1">
         <v>43328</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
@@ -1682,27 +2395,27 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1">
         <v>43328</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1711,27 +2424,27 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1">
         <v>43328</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -1740,27 +2453,27 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1">
         <v>43328</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -1769,36 +2482,36 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1">
         <v>43328</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -1810,24 +2523,24 @@
         <v>43328</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>90</v>
@@ -1839,24 +2552,24 @@
         <v>43328</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>110</v>
@@ -1868,24 +2581,24 @@
         <v>43328</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -1897,24 +2610,24 @@
         <v>43328</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -1926,288 +2639,288 @@
         <v>43328</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1">
         <v>43328</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1">
         <v>43328</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1">
         <v>43328</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="1">
         <v>43328</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="1">
         <v>43328</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="1">
         <v>43328</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="1">
         <v>43328</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
       </c>
       <c r="H20" s="1">
         <v>43328</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21">
-        <v>90</v>
-      </c>
-      <c r="G21">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
       </c>
       <c r="H21" s="1">
         <v>43328</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G22">
         <v>45</v>
@@ -2216,91 +2929,555 @@
         <v>43328</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G23">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H23" s="1">
         <v>43328</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G24">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H24" s="1">
         <v>43328</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>55</v>
       </c>
       <c r="H25" s="1">
         <v>43328</v>
       </c>
       <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
         <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>35</v>
+      </c>
+      <c r="H26" s="1">
+        <v>43328</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="1">
+        <v>43328</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="1">
+        <v>43328</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>45</v>
+      </c>
+      <c r="H35" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36">
+        <v>90</v>
+      </c>
+      <c r="G36">
+        <v>45</v>
+      </c>
+      <c r="H36" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37">
+        <v>110</v>
+      </c>
+      <c r="G37">
+        <v>45</v>
+      </c>
+      <c r="H37" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>55</v>
+      </c>
+      <c r="H38" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>35</v>
+      </c>
+      <c r="H39" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I41" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2309,18 +3486,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="22.62890625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.9453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="129.83984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2343,10 +3520,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -2355,49 +3532,49 @@
         <v>43327</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1">
         <v>43327</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>43327</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
@@ -2406,42 +3583,102 @@
         <v>43327</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="D6" s="1">
         <v>43327</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="D7" s="1">
         <v>43327</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
-      </c>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43586</v>
+      </c>
+      <c r="E8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43586</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43586</v>
+      </c>
+      <c r="E10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2449,11 +3686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2477,7 +3714,7 @@
         <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
@@ -2497,13 +3734,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -2521,21 +3758,15 @@
         <v>43327</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -2550,21 +3781,15 @@
         <v>43327</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2579,21 +3804,21 @@
         <v>43327</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -2608,7 +3833,152 @@
         <v>43327</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>43327</v>
+      </c>
+      <c r="I6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43327</v>
+      </c>
+      <c r="I7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1">
+        <v>43586</v>
+      </c>
+      <c r="I10" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2617,18 +3987,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="34.1015625" customWidth="1"/>
     <col min="2" max="2" width="10.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.3671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.3671875" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
@@ -2658,7 +4028,7 @@
         <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -2689,28 +4059,28 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2720,37 +4090,37 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2">
         <v>220668</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G3" s="3">
         <v>1.0000000000000001E-30</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L3">
         <v>30</v>
@@ -2773,40 +4143,40 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2">
         <v>220668</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
@@ -2826,40 +4196,40 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2">
         <v>257313</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G5" s="3">
-        <v>2</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J5">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -2879,40 +4249,40 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2">
         <v>257313</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3">
-        <v>3</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J6">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
         <v>34</v>
@@ -2924,9 +4294,115 @@
         <v>15</v>
       </c>
       <c r="P6" s="1">
-        <v>43313</v>
+        <v>43586</v>
       </c>
       <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="2">
+        <v>257313</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.0000000000000001E-30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="1">
+        <v>43586</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="2">
+        <v>257313</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.0000000000000001E-30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="1">
+        <v>43586</v>
+      </c>
+      <c r="Q8" t="s">
         <v>43</v>
       </c>
     </row>
